--- a/data/income_statement/1digit/size/A_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/A_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>A-Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>A-Agriculture, forestry and fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1421014.71964</v>
+        <v>1317523.35548</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1692984.18913</v>
+        <v>1559867.2492</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2184911.29935</v>
+        <v>1932545.71837</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2714682.14334</v>
+        <v>2432302.31646</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2893787.6338</v>
+        <v>2411999.8641</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4567186.016340001</v>
+        <v>4086336.59763</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5437943.347510001</v>
+        <v>4916268.12975</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5491830.6851</v>
+        <v>6227702.22208</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9097181.653690001</v>
+        <v>8345766.57319</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8779110.887880001</v>
+        <v>7825757.03869</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12458177.85221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11861305.23306</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14548802.585</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>665316.01157</v>
+        <v>574729.21899</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>956586.2474100001</v>
+        <v>840119.8037200001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1468567.19129</v>
+        <v>1233190.91877</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1834487.18101</v>
+        <v>1576079.02365</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1890567.80746</v>
+        <v>1515358.36605</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3198770.35485</v>
+        <v>2749306.09425</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3868488.62356</v>
+        <v>3391574.41712</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4606824.71868</v>
+        <v>4656728.892</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7527391.08372</v>
+        <v>6859852.950260001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6126648.925349999</v>
+        <v>5272465.32377</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8179701.805140001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7663504.58274</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10340192.132</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>619750.3382799999</v>
+        <v>613307.88951</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>708852.19201</v>
+        <v>700200.52127</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>675753.39835</v>
+        <v>669462.4439500001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>823909.1169199998</v>
+        <v>812380.71452</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>942223.90844</v>
+        <v>859032.3338399999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1303044.95104</v>
+        <v>1295366.21245</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1487405.47836</v>
+        <v>1471882.59984</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>806463.78311</v>
+        <v>1509793.7073</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1437511.01492</v>
+        <v>1389017.310499999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2518547.11829</v>
+        <v>2453694.16318</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4097024.81744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4062608.932780001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4035254.984</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>135948.36979</v>
+        <v>129486.24698</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>27545.74971</v>
+        <v>19546.92421</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>40590.70971</v>
+        <v>29892.35565</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>56285.84541000001</v>
+        <v>43842.57829</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>60995.9179</v>
+        <v>37609.16421</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>65370.71045</v>
+        <v>41664.29093</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>82049.24558999999</v>
+        <v>52811.11279</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>78542.18331000001</v>
+        <v>61179.62278</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>132279.55505</v>
+        <v>96896.31243000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>133914.84424</v>
+        <v>99597.55174000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>181451.22963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>135191.71754</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>173355.469</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>25452.46286</v>
+        <v>21965.20457</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>24964.63916</v>
+        <v>21103.88217</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>39332.90440000001</v>
+        <v>34430.63637000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>63272.00703999999</v>
+        <v>60997.95384999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>66708.02228999999</v>
+        <v>61576.00172</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>134202.87614</v>
+        <v>121754.72121</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>139013.06191</v>
+        <v>114460.77006</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>107964.60722</v>
+        <v>159278.15313</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>220408.6137</v>
+        <v>210081.70309</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>231518.4534</v>
+        <v>190763.66847</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>295033.1237700001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>273667.89301</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>455732.182</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8405.859859999999</v>
+        <v>6287.37853</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5408.80338</v>
+        <v>3379.18135</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5266.753830000001</v>
+        <v>4164.42122</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14422.84239</v>
+        <v>13839.67936</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16729.34132</v>
+        <v>14500.15752</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55700.80344</v>
+        <v>48804.5386</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>51934.02071</v>
+        <v>32083.29764</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>23877.73588</v>
+        <v>27413.20399</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>65051.88680000001</v>
+        <v>57654.75328</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>76824.65072999999</v>
+        <v>57937.91787999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>95704.26620999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>78827.90073000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>90530.732</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>13179.58768</v>
+        <v>11878.49008</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>15282.70546</v>
+        <v>13539.70665</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>28962.96481</v>
+        <v>25619.23762</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>42439.04816</v>
+        <v>41346.18303</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>42684.80175999999</v>
+        <v>40626.34548999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>71325.99244999999</v>
+        <v>67603.02157000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>80859.63384000001</v>
+        <v>76493.69985</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>75569.29892</v>
+        <v>120634.95633</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>140501.16941</v>
+        <v>138445.87047</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>130418.79217</v>
+        <v>109023.58904</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>161983.51437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>157890.81698</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>321856.6</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3867.01532</v>
+        <v>3799.33596</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4273.13032</v>
+        <v>4184.99417</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5103.185759999999</v>
+        <v>4646.977529999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6410.11649</v>
+        <v>5812.09146</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7293.87921</v>
+        <v>6449.49871</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7176.080250000001</v>
+        <v>5347.161040000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6219.407359999999</v>
+        <v>5883.77257</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8517.57242</v>
+        <v>11229.99281</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>14855.55749</v>
+        <v>13981.07934</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>24275.0105</v>
+        <v>23802.16155</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>37345.34319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36949.1753</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>43344.85</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1395562.25678</v>
+        <v>1295558.15091</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1668019.54997</v>
+        <v>1538763.36703</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2145578.39495</v>
+        <v>1898115.082</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2651410.136300001</v>
+        <v>2371304.36261</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2827079.61151</v>
+        <v>2350423.86238</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4432983.1402</v>
+        <v>3964581.87642</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5298930.2856</v>
+        <v>4801807.359689999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5383866.077879999</v>
+        <v>6068424.06895</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8876773.03999</v>
+        <v>8135684.8701</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8547592.43448</v>
+        <v>7634993.37022</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12163144.72844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11587637.34005</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14093070.403</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>966607.31946</v>
+        <v>888155.37548</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1235027.6953</v>
+        <v>1121715.80027</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1626520.27954</v>
+        <v>1435544.1327</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2040801.64591</v>
+        <v>1793799.00708</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2231120.02409</v>
+        <v>1825879.85466</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3668336.34865</v>
+        <v>3282048.99917</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4365902.454890001</v>
+        <v>3968640.14567</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4634866.81549</v>
+        <v>5058386.784639999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7229207.854440001</v>
+        <v>6622909.518499999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6774959.6073</v>
+        <v>6099855.15326</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9538875.80291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9120133.011</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11167155.701</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>836767.46346</v>
+        <v>776591.71019</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1108995.53987</v>
+        <v>1031405.46976</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1316766.59346</v>
+        <v>1191623.42836</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1661971.16423</v>
+        <v>1466132.36096</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1878675.45618</v>
+        <v>1558845.37376</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2683224.91583</v>
+        <v>2365664.31953</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3319648.33733</v>
+        <v>3000036.31664</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3010797.49537</v>
+        <v>3419666.34123</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4882043.84794</v>
+        <v>4433666.57955</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4883008.630040001</v>
+        <v>4336184.04182</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6381070.041700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6111159.18196</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7769408.214</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>73629.96978999999</v>
+        <v>59935.06879</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>91048.40353000001</v>
+        <v>61164.89863</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>265869.94082</v>
+        <v>208736.78458</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>322703.03741</v>
+        <v>296548.10841</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>308268.07929</v>
+        <v>232054.32837</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>919112.8430600001</v>
+        <v>869875.74803</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>931689.04811</v>
+        <v>873916.7200900001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1414667.17159</v>
+        <v>1416894.5379</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2175542.94388</v>
+        <v>2064789.64569</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1709163.51264</v>
+        <v>1614338.91124</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2911912.7648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2791957.54492</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3086732.738</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>48050.40323</v>
+        <v>43645.77715</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26273.23396</v>
+        <v>20434.91394</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>34438.07707</v>
+        <v>26147.1752</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>46369.54378</v>
+        <v>23301.35738</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>28548.09003</v>
+        <v>21901.59262</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>33748.59068</v>
+        <v>32312.31083</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>80718.91477</v>
+        <v>68829.38058</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>68704.53181999999</v>
+        <v>89427.25374</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>121009.93312</v>
+        <v>79807.30398</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>148265.46028</v>
+        <v>127664.47715</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>205640.77039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>198062.68599</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>282486.615</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8159.482980000001</v>
+        <v>7982.81935</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>8710.51794</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9445.66819</v>
+        <v>9036.744560000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9757.90049</v>
+        <v>7817.180330000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>15628.39859</v>
+        <v>13078.55991</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>32249.99908</v>
+        <v>14196.62078</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>33846.15468</v>
+        <v>25857.72836</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>140697.61671</v>
+        <v>132398.65177</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>50611.1295</v>
+        <v>44645.98927999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>34522.00434</v>
+        <v>21667.72305</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>40252.22601999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18953.59813</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>28528.134</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>428954.93732</v>
+        <v>407402.7754299999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>432991.85467</v>
+        <v>417047.5667600001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>519058.11541</v>
+        <v>462570.9493</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>610608.4903899999</v>
+        <v>577505.3555299999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>595959.58742</v>
+        <v>524544.00772</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>764646.7915500001</v>
+        <v>682532.87725</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>933027.83071</v>
+        <v>833167.2140199998</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>748999.26239</v>
+        <v>1010037.28431</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1647565.18555</v>
+        <v>1512775.3516</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1772632.82718</v>
+        <v>1535138.21696</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2624268.92553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2467504.32905</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2925914.702</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>192593.84461</v>
+        <v>175240.42368</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>209431.07309</v>
+        <v>188003.31331</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>271649.05142</v>
+        <v>237775.36392</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>305647.70602</v>
+        <v>274417.9168</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>333806.41927</v>
+        <v>287885.19833</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>414723.10303</v>
+        <v>372118.1784399999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>521142.4970100001</v>
+        <v>466498.59672</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>498946.20624</v>
+        <v>540524.7005299999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>789224.70649</v>
+        <v>681136.7685600001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>833760.6508700001</v>
+        <v>724896.5819400001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1045886.08303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>974965.55142</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1261859.826</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2199.27191</v>
+        <v>1907.0381</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1665.24576</v>
+        <v>1059.5551</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2830.82656</v>
+        <v>2450.15989</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3212.36557</v>
+        <v>2938.96724</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3992.82802</v>
+        <v>3558.71657</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6591.847769999999</v>
+        <v>5215.31257</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9717.964119999999</v>
+        <v>5955.882210000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9272.078240000001</v>
+        <v>6297.16096</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>14220.30781</v>
+        <v>7677.98212</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>25363.16289</v>
+        <v>19578.40226</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>29197.10895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>26602.96696</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>57125.851</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>45521.61709000001</v>
+        <v>38815.76082</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>48885.46307</v>
+        <v>40959.52327000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>65055.40192</v>
+        <v>57976.42731</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>82008.35461999998</v>
+        <v>74284.13281</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>94834.37555</v>
+        <v>76369.52687999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>133866.68227</v>
+        <v>120700.72691</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>173808.43364</v>
+        <v>158043.29981</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>181536.59737</v>
+        <v>211556.57299</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>311783.4336</v>
+        <v>279297.84072</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>361243.36608</v>
+        <v>311672.03894</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>473620.3446899999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>462373.14977</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>578890.762</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>144872.95561</v>
+        <v>134517.62476</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>158880.36426</v>
+        <v>145984.23494</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>203762.82294</v>
+        <v>177348.77672</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>220426.98583</v>
+        <v>197194.81675</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>234979.2157</v>
+        <v>207956.95488</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>274264.57299</v>
+        <v>246202.13896</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>337616.09925</v>
+        <v>302499.4147</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>308137.53063</v>
+        <v>322670.96658</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>463220.96508</v>
+        <v>394160.94572</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>447154.1219</v>
+        <v>393646.1407399999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>543068.62939</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>485989.43469</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>625843.213</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>236361.09271</v>
+        <v>232162.35175</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>223560.78158</v>
+        <v>229044.25345</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>247409.06399</v>
+        <v>224795.58538</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>304960.78437</v>
+        <v>303087.43873</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>262153.16815</v>
+        <v>236658.80939</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>349923.68852</v>
+        <v>310414.69881</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>411885.3336999999</v>
+        <v>366668.6173</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>250053.05615</v>
+        <v>469512.58378</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>858340.47906</v>
+        <v>831638.5830399999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>938872.1763099999</v>
+        <v>810241.6350199999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1578382.8425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1492538.77763</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1664054.876</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>112431.08414</v>
+        <v>97141.48277999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>134734.46417</v>
+        <v>98336.69468999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>292409.72598</v>
+        <v>238723.82436</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>287953.72305</v>
+        <v>220808.40568</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>222159.83163</v>
+        <v>152385.23157</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>321651.49504</v>
+        <v>234850.14582</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>406492.6912</v>
+        <v>282579.81616</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>506460.0985</v>
+        <v>436322.7167100001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>604520.6122699999</v>
+        <v>468081.29932</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1152896.14629</v>
+        <v>778470.4432100001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1404148.22006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1071355.61306</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1100705.525</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1127.44484</v>
+        <v>584.2534300000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>14134.80426</v>
+        <v>12561.43812</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11057.63985</v>
+        <v>10084.19132</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>12035.27086</v>
+        <v>2027.40931</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14659.19835</v>
+        <v>14171.20109</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>43250.23476</v>
+        <v>32603.62551</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>46064.61121</v>
+        <v>3419.54182</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>19277.8042</v>
+        <v>4862.263400000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>22593.03107</v>
+        <v>114.35625</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>22967.61462</v>
+        <v>3423.29464</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>209868.20422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>10698.87423</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>31561.255</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>31654.92675</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>32650.59198</v>
+        <v>2976.7589</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10654.63892</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2894.14582</v>
+        <v>0.01635</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>109878.61022</v>
+        <v>104126.82335</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>80492.29002</v>
+        <v>76999.66002</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>59453.72472999999</v>
@@ -1840,74 +1856,84 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5416.71695</v>
+        <v>4367.56658</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6440.955319999999</v>
+        <v>3986.31893</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>9443.047989999999</v>
+        <v>4713.813779999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>15126.38823</v>
+        <v>6480.923019999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>9489.78975</v>
+        <v>3920.94417</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8555.489810000001</v>
+        <v>5396.27302</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>22429.37243</v>
+        <v>11086.94808</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>41978.53224</v>
+        <v>20550.77119</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>59840.93279000001</v>
+        <v>48251.52823999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>60594.62936</v>
+        <v>45114.60042</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>80376.58160999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>63336.57125</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>52148.706</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>27.73497</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>13.21716</v>
+        <v>7.59316</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>33.44064</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1318.73909</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3308.8593</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>522.44929</v>
+        <v>217.84079</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>494.901</v>
+        <v>292.08814</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>492.02846</v>
+        <v>403.64531</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>20.46073</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2.84052</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15.114</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1841.11573</v>
@@ -1931,37 +1962,42 @@
         <v>503.35904</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4509.59855</v>
+        <v>864.88888</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1213.1913</v>
+        <v>1130.25057</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2457.86151</v>
+        <v>2201.40968</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2055.96788</v>
+        <v>1937.77888</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3775.67571</v>
+        <v>3284.08959</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6391.31998</v>
+        <v>4732.09117</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9527.864170000001</v>
+        <v>3275.572439999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4888.71809</v>
+        <v>1441.68821</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3879.0756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3308.21717</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4582.479</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>525.5730500000001</v>
@@ -1970,76 +2006,86 @@
         <v>373.65241</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>478.51241</v>
+        <v>422.8673200000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>623.96726</v>
+        <v>568.82857</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>283.19575</v>
+        <v>185.31473</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>368.0685500000001</v>
+        <v>285.11208</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1532.3241</v>
+        <v>177.54536</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>124.28132</v>
+        <v>428.69067</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>763.18436</v>
+        <v>483.18183</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>312.95764</v>
+        <v>214.57912</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3366.46509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1595.40633</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>251.028</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>75372.17911999999</v>
+        <v>63807.26922</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>80476.80239</v>
+        <v>51209.08402</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>218434.74196</v>
+        <v>178725.67034</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>168004.02698</v>
+        <v>157668.60704</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>91236.37137000001</v>
+        <v>63901.81407</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>162659.09763</v>
+        <v>111067.67447</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>227295.55093</v>
+        <v>178131.61135</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>222862.71048</v>
+        <v>210466.525</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>313393.81005</v>
+        <v>244654.52561</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>874041.9504000001</v>
+        <v>554230.6947699999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>909494.1052400001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>813250.16374</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>798072.7610000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>66.27055</v>
@@ -2054,7 +2100,7 @@
         <v>471.02177</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>162.53796</v>
+        <v>2.49979</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>308.81018</v>
@@ -2063,22 +2109,27 @@
         <v>2064.54351</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1107.88792</v>
+        <v>1595.53399</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2087.63183</v>
+        <v>1994.89877</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3105.39461</v>
+        <v>2749.85235</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>9226.25943</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14974.512</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>4.347989999999999</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>28054.04893</v>
+        <v>25921.69925000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>32780.11077000001</v>
+        <v>29683.68619</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>48046.48128</v>
+        <v>43506.12942</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>57506.19081</v>
+        <v>52461.3654</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>67911.42565999999</v>
+        <v>61716.42984</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>93276.73802</v>
+        <v>83033.03088999998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>99937.21849999999</v>
+        <v>84123.43196</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>104346.92368</v>
+        <v>89156.37263</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>114620.59947</v>
+        <v>91106.30764999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>127531.15684</v>
+        <v>111842.00897</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>187934.68835</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>169937.28039</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>199099.67</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>112831.34901</v>
+        <v>95881.8034</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>66842.89668000001</v>
+        <v>40715.93142</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>259790.5495</v>
+        <v>172931.85135</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>167325.64986</v>
+        <v>156239.31863</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>188713.13289</v>
+        <v>109261.65221</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>242958.72912</v>
+        <v>184664.49114</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>371486.05181</v>
+        <v>291763.50875</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>344217.5590299999</v>
+        <v>252276.73248</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>444781.71115</v>
+        <v>333429.68061</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>913329.20495</v>
+        <v>560238.1015399999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1104706.44484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>979644.74549</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>971043.796</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>155.84392</v>
+        <v>3.4946</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>653.29425</v>
+        <v>0.59185</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>838.41031</v>
+        <v>1.62845</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3347.58811</v>
+        <v>3101.52634</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5833.325919999999</v>
+        <v>4473.00866</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4335.128310000001</v>
+        <v>3488.14351</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4143.50821</v>
+        <v>3369.73378</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>6738.05908</v>
+        <v>6689.78008</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7738.25404</v>
+        <v>7571.83853</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12191.86534</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5651.42909</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>445.18019</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>17613.208</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4272.30944</v>
+        <v>4121.69442</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5180.625529999999</v>
+        <v>4503.75755</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2841.263809999999</v>
+        <v>2468.70257</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5013.048029999999</v>
+        <v>4994.10186</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6236.63316</v>
+        <v>5455.55541</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5210.007820000001</v>
+        <v>4653.91899</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12844.60266</v>
+        <v>8820.175430000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9907.569089999997</v>
+        <v>9659.17945</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>27700.96453</v>
+        <v>24827.82651</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>25791.40139</v>
+        <v>17607.43391</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>33121.34875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>32897.84969</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11880.021</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3.28507</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>0</v>
@@ -2294,64 +2370,74 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>13157.39729</v>
+        <v>12658.8953</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>79.54433999999999</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1031.60714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>122.567</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>60484.1197</v>
+        <v>50453.6382</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>43220.73342</v>
+        <v>18898.67292</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>233984.46179</v>
+        <v>149995.18189</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>120228.49733</v>
+        <v>113785.25245</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>141284.45358</v>
+        <v>67344.12628999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>162066.85726</v>
+        <v>106816.27417</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>274481.36422</v>
+        <v>202909.33914</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>254694.33083</v>
+        <v>170622.52231</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>314253.89102</v>
+        <v>223105.55045</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>781489.84824</v>
+        <v>465183.79595</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>950622.3860000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>836602.4537700001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>833586.581</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>68.78222</v>
@@ -2369,28 +2455,33 @@
         <v>80.41432</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>952.62562</v>
+        <v>952.6256200000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>1954.42565</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1330.44068</v>
+        <v>2208.43429</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2078.07337</v>
+        <v>1904.66507</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>8219.95953</v>
+        <v>5096.07651</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>16345.41658</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>10052.432</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>91.26826</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47850.29373</v>
+        <v>41234.19396</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>17363.08762</v>
+        <v>16887.75324</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>21560.75207</v>
+        <v>19991.94518</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>38733.23132</v>
+        <v>34358.43798</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>35278.30591</v>
+        <v>31908.54753</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>70394.11010999999</v>
+        <v>68753.52884999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>64904.75378</v>
+        <v>62050.93945</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>71547.15934999999</v>
+        <v>63096.81635</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>92930.98384999999</v>
+        <v>76019.80004999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>85636.13044999998</v>
+        <v>72350.79517</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>97934.25727999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>93353.84526</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>97788.98699999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>92342.62980000001</v>
+        <v>78919.91791000002</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>45408.01451</v>
+        <v>32788.63127999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>98791.32011</v>
+        <v>78592.90393</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>122825.65538</v>
+        <v>101213.28382</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>134305.24833</v>
+        <v>91829.87748000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>291227.74463</v>
+        <v>224351.8153</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>363339.6086</v>
+        <v>275698.64781</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>307830.12767</v>
+        <v>363590.01225</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>491219.37241</v>
+        <v>432715.10645</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>470547.64899</v>
+        <v>332347.9838700001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>700808.6141700001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>613475.0164</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>441790.684</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>81574.78062000001</v>
+        <v>78916.06902000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>30410.20397</v>
+        <v>25447.84534</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>72191.70658000001</v>
+        <v>62596.18599</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>98536.86623999999</v>
+        <v>85662.45573</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>106288.41976</v>
+        <v>78059.98430000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>248846.01034</v>
+        <v>211181.34989</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>299089.68747</v>
+        <v>256473.31292</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>280887.9255299999</v>
+        <v>343305.88674</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>450927.23434</v>
+        <v>405410.44796</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>432065.92821</v>
+        <v>317632.3838199999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>677039.7822100001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>602696.6894</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>431992.376</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10767.84918</v>
+        <v>3.84889</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14997.81054</v>
+        <v>7340.785940000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>26599.61353</v>
+        <v>15996.71794</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>24288.78914</v>
+        <v>15550.82809</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>28016.82857</v>
+        <v>13769.89318</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>42381.73429</v>
+        <v>13170.46541</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>64249.92113</v>
+        <v>19225.33489</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>26942.20214</v>
+        <v>20284.12551</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>40292.13807</v>
+        <v>27304.65849</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>38481.72078</v>
+        <v>14715.60005</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>23768.83196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>10778.327</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9798.308000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>143618.19804</v>
+        <v>154502.11322</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>246044.33456</v>
+        <v>253876.38544</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>181236.92036</v>
+        <v>211994.65446</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>302763.20218</v>
+        <v>266443.24196</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>161294.61856</v>
+        <v>187952.51127</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>137388.70981</v>
+        <v>136248.53819</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>83552.36449000001</v>
+        <v>81786.27690000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>104465.46795</v>
+        <v>289968.55576</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>526860.00777</v>
+        <v>533575.0953</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>707891.4686600001</v>
+        <v>696125.9928200002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1177016.00355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>970774.6287999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1351925.921</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>33741.27568999999</v>
+        <v>29791.84738</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>36558.87308999999</v>
+        <v>13556.76889</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>23652.92725</v>
+        <v>19733.56776</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>36573.60457</v>
+        <v>25606.80055</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27836.07017</v>
+        <v>19943.63557</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>72290.02347999999</v>
+        <v>61458.74866</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>75765.96386</v>
+        <v>63677.47533</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>79670.37388</v>
+        <v>58922.38806999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>208450.43175</v>
+        <v>102442.19963</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>78395.05095</v>
+        <v>56521.63578</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>131499.5364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>111100.44968</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>96422.47</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>180.68381</v>
+        <v>179.86576</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1474.14423</v>
+        <v>349.68303</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1383.19989</v>
+        <v>827.27261</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1093.84369</v>
+        <v>744.6187</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>325.11268</v>
+        <v>306.05998</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>283.90195</v>
+        <v>239.9922</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>506.40256</v>
+        <v>314.64921</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1664.27966</v>
+        <v>1653.57966</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4124.82142</v>
+        <v>3734.33708</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7693.00528</v>
+        <v>7684.038100000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3284.12934</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1511.77121</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4778.181</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>33560.59188</v>
+        <v>29611.98162</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>35084.72886</v>
+        <v>13207.08586</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>22269.72736</v>
+        <v>18906.29515</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>35479.76088</v>
+        <v>24862.18185</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>27510.95749</v>
+        <v>19637.57559</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>72006.12153</v>
+        <v>61218.75646</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>75259.5613</v>
+        <v>63362.82612000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>78006.09422</v>
+        <v>57268.80841</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>204325.61033</v>
+        <v>98707.86254999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>70702.04567000001</v>
+        <v>48837.59767999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>128215.40706</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>109588.67847</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>91644.289</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37935.50349999999</v>
+        <v>31208.12107</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>34891.38462</v>
+        <v>30573.91018</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>65108.29833000001</v>
+        <v>50876.93202</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>69504.00602999999</v>
+        <v>54054.70994000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>67687.42202</v>
+        <v>50910.98045</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>131166.11621</v>
+        <v>104999.88781</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>97820.57775999999</v>
+        <v>67909.95265000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>99273.81632</v>
+        <v>61738.66302</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>99080.21097000001</v>
+        <v>72172.63620999998</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>108268.20367</v>
+        <v>72168.02294999998</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>131070.22628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>105049.17352</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>96292.826</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>7301.9985</v>
+        <v>6644.179500000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>9965.59801</v>
+        <v>9932.94231</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>14597.271</v>
+        <v>13557.55814</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>16784.87574</v>
+        <v>16655.68112</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>15021.84525</v>
+        <v>13641.68384</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>25204.69688</v>
+        <v>22357.79775</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>22622.00023</v>
+        <v>17828.21413</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>20025.88291</v>
+        <v>17474.54875000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>31316.44149</v>
+        <v>23187.32893</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>22190.65263</v>
+        <v>14487.82005</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>16323.00219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>15190.82081</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17309.568</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>18865.07978</v>
+        <v>18864.67927</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>16698.00368</v>
+        <v>16671.14963</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>23252.95703</v>
+        <v>22752.98164</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>26180.94686</v>
+        <v>26044.85167</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>25285.05456</v>
+        <v>25188.20894</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>40972.11134</v>
+        <v>40775.25099000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>23373.67603</v>
+        <v>23160.1596</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26107.82799</v>
+        <v>24456.04194</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>30290.84641</v>
+        <v>29693.98004</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>27173.29499</v>
+        <v>27159.19466</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>41995.41545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>41633.65775999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>45395.879</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>11768.42522</v>
+        <v>5699.262299999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8227.782929999999</v>
+        <v>3969.81824</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>27258.0703</v>
+        <v>14566.39224</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>26538.18343</v>
+        <v>11354.17715</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27380.52221</v>
+        <v>12081.08767</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>64989.30798999999</v>
+        <v>41866.83907</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>51824.9015</v>
+        <v>26921.57892</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>53140.10541999999</v>
+        <v>19808.07233</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>37472.92307</v>
+        <v>19291.32724</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>58904.25605</v>
+        <v>30521.00824</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>72751.80864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>48224.69495</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33587.379</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>139423.97023</v>
+        <v>153085.83953</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>247711.82303</v>
+        <v>236859.24415</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>139781.54928</v>
+        <v>180851.2902</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>269832.8007200001</v>
+        <v>237995.33257</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>121443.26671</v>
+        <v>156985.16639</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>78512.61708000001</v>
+        <v>92707.39903999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>61497.75058999999</v>
+        <v>77553.79957999998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>84862.02551000001</v>
+        <v>287152.28081</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>636230.2285500001</v>
+        <v>563844.6587200001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>678018.3159399999</v>
+        <v>680479.60565</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1177445.31367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>976825.9049600001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1352055.565</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>25493.13662</v>
+        <v>25215.07648</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>43546.09549</v>
+        <v>40183.86389</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>37574.23199</v>
+        <v>33712.41239</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>43513.80416</v>
+        <v>39417.53814</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28587.96593</v>
+        <v>25826.70682</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>34061.73587</v>
+        <v>32471.26292</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>40683.79308</v>
+        <v>34778.70353</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26887.09379</v>
+        <v>62667.43893</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>81395.66097</v>
+        <v>69307.8184</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>141122.07508</v>
+        <v>123790.35451</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>200624.09692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>189872.88091</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>285068.634</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>113930.83361</v>
+        <v>127870.76305</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>204165.72754</v>
+        <v>196675.38026</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>102207.31729</v>
+        <v>147138.87781</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>226318.99656</v>
+        <v>198577.79443</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>92855.30077999999</v>
+        <v>131158.45957</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>44450.88120999999</v>
+        <v>60236.13612</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>20813.95750999998</v>
+        <v>42775.09605000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>57974.93172</v>
+        <v>224484.84188</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>554834.5675799999</v>
+        <v>494536.84032</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>536896.24086</v>
+        <v>556689.2511399999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>976821.21675</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>786953.02405</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1066986.931</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>54</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>62</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>28</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>33</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>55</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>68</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>51</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>76</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>83</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>113</v>
-      </c>
-      <c r="L59" s="35" t="n">
+      <c r="M59" s="35" t="n">
+        <v>39</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>48</v>
       </c>
-      <c r="M59" s="35" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>